--- a/exemplo-arvore.xlsx
+++ b/exemplo-arvore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\202003-intro-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D755338A-7074-4019-BCBC-F5CBF8F9E740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA13D7-31F9-4AC8-94C6-7F4B6048F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Pressão</t>
   </si>
@@ -51,27 +51,6 @@
   </si>
   <si>
     <t>sim</t>
-  </si>
-  <si>
-    <t>glicose&lt;111</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>yhat</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>não</t>
-  </si>
-  <si>
-    <t>CP</t>
   </si>
 </sst>
 </file>
@@ -484,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,12 +474,10 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,23 +487,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -536,23 +499,10 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -562,23 +512,10 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -588,23 +525,10 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -614,23 +538,10 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -640,24 +551,12 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -667,45 +566,16 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="4">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H10">
-        <f>I8/E8</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <f>(1-H10)/(1 - 0)</f>
-        <v>0.66666666666666674</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
